--- a/data_xlsx/SHIBOR_3个月.xlsx
+++ b/data_xlsx/SHIBOR_3个月.xlsx
@@ -9031,7 +9031,7 @@
         <v>40718.0</v>
       </c>
       <c r="B1119" s="2" t="n">
-        <v>6.3893</v>
+        <v>6.3892999999999995</v>
       </c>
     </row>
     <row r="1120">
@@ -9047,7 +9047,7 @@
         <v>40722.0</v>
       </c>
       <c r="B1121" s="2" t="n">
-        <v>6.4611</v>
+        <v>6.461100000000001</v>
       </c>
     </row>
     <row r="1122">
@@ -9055,7 +9055,7 @@
         <v>40723.0</v>
       </c>
       <c r="B1122" s="2" t="n">
-        <v>6.4571</v>
+        <v>6.4571000000000005</v>
       </c>
     </row>
     <row r="1123">
@@ -9063,7 +9063,7 @@
         <v>40724.0</v>
       </c>
       <c r="B1123" s="2" t="n">
-        <v>6.3917</v>
+        <v>6.391699999999999</v>
       </c>
     </row>
     <row r="1124">
@@ -9079,7 +9079,7 @@
         <v>40728.0</v>
       </c>
       <c r="B1125" s="2" t="n">
-        <v>6.3579</v>
+        <v>6.357900000000001</v>
       </c>
     </row>
     <row r="1126">
@@ -9095,7 +9095,7 @@
         <v>40730.0</v>
       </c>
       <c r="B1127" s="2" t="n">
-        <v>6.3333</v>
+        <v>6.3332999999999995</v>
       </c>
     </row>
     <row r="1128">
@@ -9111,7 +9111,7 @@
         <v>40732.0</v>
       </c>
       <c r="B1129" s="2" t="n">
-        <v>6.3057</v>
+        <v>6.305699999999999</v>
       </c>
     </row>
     <row r="1130">
@@ -9143,7 +9143,7 @@
         <v>40738.0</v>
       </c>
       <c r="B1133" s="2" t="n">
-        <v>6.0853</v>
+        <v>6.085299999999999</v>
       </c>
     </row>
     <row r="1134">
@@ -9159,7 +9159,7 @@
         <v>40742.0</v>
       </c>
       <c r="B1135" s="2" t="n">
-        <v>5.9927</v>
+        <v>5.992700000000001</v>
       </c>
     </row>
     <row r="1136">
@@ -9199,7 +9199,7 @@
         <v>40749.0</v>
       </c>
       <c r="B1140" s="2" t="n">
-        <v>6.0383</v>
+        <v>6.0383000000000004</v>
       </c>
     </row>
     <row r="1141">
@@ -9207,7 +9207,7 @@
         <v>40750.0</v>
       </c>
       <c r="B1141" s="2" t="n">
-        <v>6.0283</v>
+        <v>6.028300000000001</v>
       </c>
     </row>
     <row r="1142">
@@ -9231,7 +9231,7 @@
         <v>40753.0</v>
       </c>
       <c r="B1144" s="2" t="n">
-        <v>5.9993</v>
+        <v>5.999299999999999</v>
       </c>
     </row>
     <row r="1145">
@@ -9247,7 +9247,7 @@
         <v>40757.0</v>
       </c>
       <c r="B1146" s="2" t="n">
-        <v>5.9085</v>
+        <v>5.908499999999999</v>
       </c>
     </row>
     <row r="1147">
@@ -33154,8 +33154,208 @@
         <v>2.1</v>
       </c>
     </row>
+    <row r="4135">
+      <c r="A4135" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B4135" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
     <row r="4136">
-      <c r="A4136" s="3" t="inlineStr">
+      <c r="A4136" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B4136" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4137">
+      <c r="A4137" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B4137" s="2" t="n">
+        <v>2.099</v>
+      </c>
+    </row>
+    <row r="4138">
+      <c r="A4138" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B4138" s="2" t="n">
+        <v>2.098</v>
+      </c>
+    </row>
+    <row r="4139">
+      <c r="A4139" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B4139" s="2" t="n">
+        <v>2.098</v>
+      </c>
+    </row>
+    <row r="4140">
+      <c r="A4140" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B4140" s="2" t="n">
+        <v>2.097</v>
+      </c>
+    </row>
+    <row r="4141">
+      <c r="A4141" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B4141" s="2" t="n">
+        <v>2.098</v>
+      </c>
+    </row>
+    <row r="4142">
+      <c r="A4142" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B4142" s="2" t="n">
+        <v>2.098</v>
+      </c>
+    </row>
+    <row r="4143">
+      <c r="A4143" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B4143" s="2" t="n">
+        <v>2.092</v>
+      </c>
+    </row>
+    <row r="4144">
+      <c r="A4144" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B4144" s="2" t="n">
+        <v>2.085</v>
+      </c>
+    </row>
+    <row r="4145">
+      <c r="A4145" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B4145" s="2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4146">
+      <c r="A4146" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B4146" s="2" t="n">
+        <v>2.075</v>
+      </c>
+    </row>
+    <row r="4147">
+      <c r="A4147" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B4147" s="2" t="n">
+        <v>2.074</v>
+      </c>
+    </row>
+    <row r="4148">
+      <c r="A4148" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B4148" s="2" t="n">
+        <v>2.067</v>
+      </c>
+    </row>
+    <row r="4149">
+      <c r="A4149" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B4149" s="2" t="n">
+        <v>2.065</v>
+      </c>
+    </row>
+    <row r="4150">
+      <c r="A4150" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B4150" s="2" t="n">
+        <v>2.063</v>
+      </c>
+    </row>
+    <row r="4151">
+      <c r="A4151" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B4151" s="2" t="n">
+        <v>2.045</v>
+      </c>
+    </row>
+    <row r="4152">
+      <c r="A4152" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B4152" s="2" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="4153">
+      <c r="A4153" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B4153" s="2" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="4154">
+      <c r="A4154" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B4154" s="2" t="n">
+        <v>2.026</v>
+      </c>
+    </row>
+    <row r="4155">
+      <c r="A4155" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B4155" s="2" t="n">
+        <v>2.024</v>
+      </c>
+    </row>
+    <row r="4156">
+      <c r="A4156" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B4156" s="2" t="n">
+        <v>2.019</v>
+      </c>
+    </row>
+    <row r="4157">
+      <c r="A4157" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B4157" s="2" t="n">
+        <v>2.016</v>
+      </c>
+    </row>
+    <row r="4158">
+      <c r="A4158" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B4158" s="2" t="n">
+        <v>2.016</v>
+      </c>
+    </row>
+    <row r="4159">
+      <c r="A4159" s="1" t="n">
+        <v>45163.0</v>
+      </c>
+      <c r="B4159" s="2" t="n">
+        <v>2.014</v>
+      </c>
+    </row>
+    <row r="4161">
+      <c r="A4161" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
